--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxnc1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H2">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I2">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J2">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.425386975291281</v>
+        <v>0.4306236666666667</v>
       </c>
       <c r="N2">
-        <v>0.425386975291281</v>
+        <v>1.291871</v>
       </c>
       <c r="O2">
-        <v>0.006835703836780164</v>
+        <v>0.006740194435209376</v>
       </c>
       <c r="P2">
-        <v>0.006835703836780164</v>
+        <v>0.006740194435209375</v>
       </c>
       <c r="Q2">
-        <v>18.56094866641096</v>
+        <v>18.94219131313056</v>
       </c>
       <c r="R2">
-        <v>18.56094866641096</v>
+        <v>170.479721818175</v>
       </c>
       <c r="S2">
-        <v>0.004355093294035131</v>
+        <v>0.004257318047658908</v>
       </c>
       <c r="T2">
-        <v>0.004355093294035131</v>
+        <v>0.004257318047658908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H3">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I3">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J3">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.47177079809229</v>
+        <v>4.474616333333334</v>
       </c>
       <c r="N3">
-        <v>4.47177079809229</v>
+        <v>13.423849</v>
       </c>
       <c r="O3">
-        <v>0.0718585724934101</v>
+        <v>0.07003745136231941</v>
       </c>
       <c r="P3">
-        <v>0.0718585724934101</v>
+        <v>0.07003745136231941</v>
       </c>
       <c r="Q3">
-        <v>195.1171828298519</v>
+        <v>196.8285656358695</v>
       </c>
       <c r="R3">
-        <v>195.1171828298519</v>
+        <v>1771.457090722825</v>
       </c>
       <c r="S3">
-        <v>0.0457817943342024</v>
+        <v>0.04423784930287002</v>
       </c>
       <c r="T3">
-        <v>0.0457817943342024</v>
+        <v>0.04423784930287001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H4">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I4">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J4">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.595656568382</v>
+        <v>28.689804</v>
       </c>
       <c r="N4">
-        <v>28.595656568382</v>
+        <v>86.069412</v>
       </c>
       <c r="O4">
-        <v>0.4595143967111098</v>
+        <v>0.4490576627264975</v>
       </c>
       <c r="P4">
-        <v>0.4595143967111098</v>
+        <v>0.4490576627264975</v>
       </c>
       <c r="Q4">
-        <v>1247.716889508946</v>
+        <v>1262.0015994729</v>
       </c>
       <c r="R4">
-        <v>1247.716889508946</v>
+        <v>11358.0143952561</v>
       </c>
       <c r="S4">
-        <v>0.2927610843614015</v>
+        <v>0.2836388935574761</v>
       </c>
       <c r="T4">
-        <v>0.2927610843614015</v>
+        <v>0.2836388935574761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H5">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I5">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J5">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.2040707121119</v>
+        <v>29.73637633333333</v>
       </c>
       <c r="N5">
-        <v>28.2040707121119</v>
+        <v>89.20912899999999</v>
       </c>
       <c r="O5">
-        <v>0.4532218558116112</v>
+        <v>0.4654387898293833</v>
       </c>
       <c r="P5">
-        <v>0.4532218558116112</v>
+        <v>0.4654387898293833</v>
       </c>
       <c r="Q5">
-        <v>1230.630788149718</v>
+        <v>1308.038022678536</v>
       </c>
       <c r="R5">
-        <v>1230.630788149718</v>
+        <v>11772.34220410682</v>
       </c>
       <c r="S5">
-        <v>0.2887520454492129</v>
+        <v>0.2939857268315735</v>
       </c>
       <c r="T5">
-        <v>0.2887520454492129</v>
+        <v>0.2939857268315734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.6330911488333</v>
+        <v>43.98780833333333</v>
       </c>
       <c r="H6">
-        <v>43.6330911488333</v>
+        <v>131.963425</v>
       </c>
       <c r="I6">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953905</v>
       </c>
       <c r="J6">
-        <v>0.6371097107224177</v>
+        <v>0.6316313406953904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.533279600484136</v>
+        <v>0.5574883333333333</v>
       </c>
       <c r="N6">
-        <v>0.533279600484136</v>
+        <v>1.672465</v>
       </c>
       <c r="O6">
-        <v>0.008569471147088783</v>
+        <v>0.008725901646590447</v>
       </c>
       <c r="P6">
-        <v>0.008569471147088783</v>
+        <v>0.008725901646590447</v>
       </c>
       <c r="Q6">
-        <v>23.26863741573771</v>
+        <v>24.52268995473611</v>
       </c>
       <c r="R6">
-        <v>23.26863741573771</v>
+        <v>220.704209592625</v>
       </c>
       <c r="S6">
-        <v>0.005459693283565839</v>
+        <v>0.00551155295581204</v>
       </c>
       <c r="T6">
-        <v>0.005459693283565839</v>
+        <v>0.005511552955812039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H7">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I7">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J7">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.425386975291281</v>
+        <v>0.4306236666666667</v>
       </c>
       <c r="N7">
-        <v>0.425386975291281</v>
+        <v>1.291871</v>
       </c>
       <c r="O7">
-        <v>0.006835703836780164</v>
+        <v>0.006740194435209376</v>
       </c>
       <c r="P7">
-        <v>0.006835703836780164</v>
+        <v>0.006740194435209375</v>
       </c>
       <c r="Q7">
-        <v>9.016342033790572</v>
+        <v>9.165082923963556</v>
       </c>
       <c r="R7">
-        <v>9.016342033790572</v>
+        <v>82.485746315672</v>
       </c>
       <c r="S7">
-        <v>0.002115571323094514</v>
+        <v>0.002059881683986221</v>
       </c>
       <c r="T7">
-        <v>0.002115571323094514</v>
+        <v>0.00205988168398622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H8">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I8">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J8">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.47177079809229</v>
+        <v>4.474616333333334</v>
       </c>
       <c r="N8">
-        <v>4.47177079809229</v>
+        <v>13.423849</v>
       </c>
       <c r="O8">
-        <v>0.0718585724934101</v>
+        <v>0.07003745136231941</v>
       </c>
       <c r="P8">
-        <v>0.0718585724934101</v>
+        <v>0.07003745136231941</v>
       </c>
       <c r="Q8">
-        <v>94.78196878197444</v>
+        <v>95.23450038259645</v>
       </c>
       <c r="R8">
-        <v>94.78196878197444</v>
+        <v>857.1105034433681</v>
       </c>
       <c r="S8">
-        <v>0.02223939756833787</v>
+        <v>0.02140425838469688</v>
       </c>
       <c r="T8">
-        <v>0.02223939756833787</v>
+        <v>0.02140425838469688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H9">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I9">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J9">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.595656568382</v>
+        <v>28.689804</v>
       </c>
       <c r="N9">
-        <v>28.595656568382</v>
+        <v>86.069412</v>
       </c>
       <c r="O9">
-        <v>0.4595143967111098</v>
+        <v>0.4490576627264975</v>
       </c>
       <c r="P9">
-        <v>0.4595143967111098</v>
+        <v>0.4490576627264975</v>
       </c>
       <c r="Q9">
-        <v>606.1027611971332</v>
+        <v>610.6130551709761</v>
       </c>
       <c r="R9">
-        <v>606.1027611971332</v>
+        <v>5495.517496538784</v>
       </c>
       <c r="S9">
-        <v>0.1422143942223522</v>
+        <v>0.1372372360168034</v>
       </c>
       <c r="T9">
-        <v>0.1422143942223522</v>
+        <v>0.1372372360168034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H10">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I10">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J10">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.2040707121119</v>
+        <v>29.73637633333333</v>
       </c>
       <c r="N10">
-        <v>28.2040707121119</v>
+        <v>89.20912899999999</v>
       </c>
       <c r="O10">
-        <v>0.4532218558116112</v>
+        <v>0.4654387898293833</v>
       </c>
       <c r="P10">
-        <v>0.4532218558116112</v>
+        <v>0.4654387898293833</v>
       </c>
       <c r="Q10">
-        <v>597.8028549451649</v>
+        <v>632.8875443907031</v>
       </c>
       <c r="R10">
-        <v>597.8028549451649</v>
+        <v>5695.987899516328</v>
       </c>
       <c r="S10">
-        <v>0.1402669255498872</v>
+        <v>0.142243498670892</v>
       </c>
       <c r="T10">
-        <v>0.1402669255498872</v>
+        <v>0.142243498670892</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.1956231796159</v>
+        <v>21.28327733333333</v>
       </c>
       <c r="H11">
-        <v>21.1956231796159</v>
+        <v>63.84983200000001</v>
       </c>
       <c r="I11">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="J11">
-        <v>0.3094884409285666</v>
+        <v>0.3056116116214432</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.533279600484136</v>
+        <v>0.5574883333333333</v>
       </c>
       <c r="N11">
-        <v>0.533279600484136</v>
+        <v>1.672465</v>
       </c>
       <c r="O11">
-        <v>0.008569471147088783</v>
+        <v>0.008725901646590447</v>
       </c>
       <c r="P11">
-        <v>0.008569471147088783</v>
+        <v>0.008725901646590447</v>
       </c>
       <c r="Q11">
-        <v>11.30319346123786</v>
+        <v>11.86517880843111</v>
       </c>
       <c r="R11">
-        <v>11.30319346123786</v>
+        <v>106.78660927588</v>
       </c>
       <c r="S11">
-        <v>0.002652152264894842</v>
+        <v>0.002666736865064712</v>
       </c>
       <c r="T11">
-        <v>0.002652152264894842</v>
+        <v>0.002666736865064711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H12">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I12">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J12">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.425386975291281</v>
+        <v>0.4306236666666667</v>
       </c>
       <c r="N12">
-        <v>0.425386975291281</v>
+        <v>1.291871</v>
       </c>
       <c r="O12">
-        <v>0.006835703836780164</v>
+        <v>0.006740194435209376</v>
       </c>
       <c r="P12">
-        <v>0.006835703836780164</v>
+        <v>0.006740194435209375</v>
       </c>
       <c r="Q12">
-        <v>1.555758685224935</v>
+        <v>0.007793283578111112</v>
       </c>
       <c r="R12">
-        <v>1.555758685224935</v>
+        <v>0.070139552203</v>
       </c>
       <c r="S12">
-        <v>0.0003650392196505204</v>
+        <v>1.751565395953804E-06</v>
       </c>
       <c r="T12">
-        <v>0.0003650392196505204</v>
+        <v>1.751565395953803E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H13">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I13">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J13">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.47177079809229</v>
+        <v>4.474616333333334</v>
       </c>
       <c r="N13">
-        <v>4.47177079809229</v>
+        <v>13.423849</v>
       </c>
       <c r="O13">
-        <v>0.0718585724934101</v>
+        <v>0.07003745136231941</v>
       </c>
       <c r="P13">
-        <v>0.0718585724934101</v>
+        <v>0.07003745136231941</v>
       </c>
       <c r="Q13">
-        <v>16.35451168363479</v>
+        <v>0.0809801148618889</v>
       </c>
       <c r="R13">
-        <v>16.35451168363479</v>
+        <v>0.728821033757</v>
       </c>
       <c r="S13">
-        <v>0.00383738059086985</v>
+        <v>1.820053967378251E-05</v>
       </c>
       <c r="T13">
-        <v>0.00383738059086985</v>
+        <v>1.82005396737825E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H14">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I14">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J14">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.595656568382</v>
+        <v>28.689804</v>
       </c>
       <c r="N14">
-        <v>28.595656568382</v>
+        <v>86.069412</v>
       </c>
       <c r="O14">
-        <v>0.4595143967111098</v>
+        <v>0.4490576627264975</v>
       </c>
       <c r="P14">
-        <v>0.4595143967111098</v>
+        <v>0.4490576627264975</v>
       </c>
       <c r="Q14">
-        <v>104.5822830741513</v>
+        <v>0.5192185095240001</v>
       </c>
       <c r="R14">
-        <v>104.5822830741513</v>
+        <v>4.672966585716</v>
       </c>
       <c r="S14">
-        <v>0.02453891812735621</v>
+        <v>0.0001166960197336198</v>
       </c>
       <c r="T14">
-        <v>0.02453891812735621</v>
+        <v>0.0001166960197336197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.65727860887052</v>
+        <v>0.01809766666666667</v>
       </c>
       <c r="H15">
-        <v>3.65727860887052</v>
+        <v>0.054293</v>
       </c>
       <c r="I15">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269442</v>
       </c>
       <c r="J15">
-        <v>0.05340184834901589</v>
+        <v>0.0002598686748269441</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.2040707121119</v>
+        <v>29.73637633333333</v>
       </c>
       <c r="N15">
-        <v>28.2040707121119</v>
+        <v>89.20912899999999</v>
       </c>
       <c r="O15">
-        <v>0.4532218558116112</v>
+        <v>0.4654387898293833</v>
       </c>
       <c r="P15">
-        <v>0.4532218558116112</v>
+        <v>0.4654387898293833</v>
       </c>
       <c r="Q15">
-        <v>103.1501444984784</v>
+        <v>0.5381590267552222</v>
       </c>
       <c r="R15">
-        <v>103.1501444984784</v>
+        <v>4.843431240797</v>
       </c>
       <c r="S15">
-        <v>0.02420288481251121</v>
+        <v>0.0001209529615260185</v>
       </c>
       <c r="T15">
-        <v>0.02420288481251121</v>
+        <v>0.0001209529615260184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01809766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054293</v>
+      </c>
+      <c r="I16">
+        <v>0.0002598686748269442</v>
+      </c>
+      <c r="J16">
+        <v>0.0002598686748269441</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5574883333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.672465</v>
+      </c>
+      <c r="O16">
+        <v>0.008725901646590447</v>
+      </c>
+      <c r="P16">
+        <v>0.008725901646590447</v>
+      </c>
+      <c r="Q16">
+        <v>0.01008923802722222</v>
+      </c>
+      <c r="R16">
+        <v>0.090803142245</v>
+      </c>
+      <c r="S16">
+        <v>2.26758849756971E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.267588497569709E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.030675</v>
+      </c>
+      <c r="H17">
+        <v>0.092025</v>
+      </c>
+      <c r="I17">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J17">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4306236666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.291871</v>
+      </c>
+      <c r="O17">
+        <v>0.006740194435209376</v>
+      </c>
+      <c r="P17">
+        <v>0.006740194435209375</v>
+      </c>
+      <c r="Q17">
+        <v>0.013209380975</v>
+      </c>
+      <c r="R17">
+        <v>0.118884428775</v>
+      </c>
+      <c r="S17">
+        <v>2.968850598836845E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.968850598836843E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.030675</v>
+      </c>
+      <c r="H18">
+        <v>0.092025</v>
+      </c>
+      <c r="I18">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J18">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.474616333333334</v>
+      </c>
+      <c r="N18">
+        <v>13.423849</v>
+      </c>
+      <c r="O18">
+        <v>0.07003745136231941</v>
+      </c>
+      <c r="P18">
+        <v>0.07003745136231941</v>
+      </c>
+      <c r="Q18">
+        <v>0.137258856025</v>
+      </c>
+      <c r="R18">
+        <v>1.235329704225</v>
+      </c>
+      <c r="S18">
+        <v>3.084936664910457E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.084936664910457E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.030675</v>
+      </c>
+      <c r="H19">
+        <v>0.092025</v>
+      </c>
+      <c r="I19">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J19">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>28.689804</v>
+      </c>
+      <c r="N19">
+        <v>86.069412</v>
+      </c>
+      <c r="O19">
+        <v>0.4490576627264975</v>
+      </c>
+      <c r="P19">
+        <v>0.4490576627264975</v>
+      </c>
+      <c r="Q19">
+        <v>0.8800597376999999</v>
+      </c>
+      <c r="R19">
+        <v>7.9205376393</v>
+      </c>
+      <c r="S19">
+        <v>0.0001977962392202744</v>
+      </c>
+      <c r="T19">
+        <v>0.0001977962392202743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.030675</v>
+      </c>
+      <c r="H20">
+        <v>0.092025</v>
+      </c>
+      <c r="I20">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J20">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>29.73637633333333</v>
+      </c>
+      <c r="N20">
+        <v>89.20912899999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4654387898293833</v>
+      </c>
+      <c r="P20">
+        <v>0.4654387898293833</v>
+      </c>
+      <c r="Q20">
+        <v>0.9121633440249998</v>
+      </c>
+      <c r="R20">
+        <v>8.209470096224999</v>
+      </c>
+      <c r="S20">
+        <v>0.00020501162736323</v>
+      </c>
+      <c r="T20">
+        <v>0.0002050116273632299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.030675</v>
+      </c>
+      <c r="H21">
+        <v>0.092025</v>
+      </c>
+      <c r="I21">
+        <v>0.0004404695780478061</v>
+      </c>
+      <c r="J21">
+        <v>0.000440469578047806</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5574883333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.672465</v>
+      </c>
+      <c r="O21">
+        <v>0.008725901646590447</v>
+      </c>
+      <c r="P21">
+        <v>0.008725901646590447</v>
+      </c>
+      <c r="Q21">
+        <v>0.017100954625</v>
+      </c>
+      <c r="R21">
+        <v>0.153908591625</v>
+      </c>
+      <c r="S21">
+        <v>3.843494216360351E-06</v>
+      </c>
+      <c r="T21">
+        <v>3.84349421636035E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H22">
+        <v>12.965183</v>
+      </c>
+      <c r="I22">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J22">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4306236666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.291871</v>
+      </c>
+      <c r="O22">
+        <v>0.006740194435209376</v>
+      </c>
+      <c r="P22">
+        <v>0.006740194435209375</v>
+      </c>
+      <c r="Q22">
+        <v>1.861038214154778</v>
+      </c>
+      <c r="R22">
+        <v>16.749343927393</v>
+      </c>
+      <c r="S22">
+        <v>0.000418274287569457</v>
+      </c>
+      <c r="T22">
+        <v>0.0004182742875694569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H23">
+        <v>12.965183</v>
+      </c>
+      <c r="I23">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J23">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.474616333333334</v>
+      </c>
+      <c r="N23">
+        <v>13.423849</v>
+      </c>
+      <c r="O23">
+        <v>0.07003745136231941</v>
+      </c>
+      <c r="P23">
+        <v>0.07003745136231941</v>
+      </c>
+      <c r="Q23">
+        <v>19.33807320548522</v>
+      </c>
+      <c r="R23">
+        <v>174.042658849367</v>
+      </c>
+      <c r="S23">
+        <v>0.00434629376842964</v>
+      </c>
+      <c r="T23">
+        <v>0.004346293768429639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.65727860887052</v>
-      </c>
-      <c r="H16">
-        <v>3.65727860887052</v>
-      </c>
-      <c r="I16">
-        <v>0.05340184834901589</v>
-      </c>
-      <c r="J16">
-        <v>0.05340184834901589</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.533279600484136</v>
-      </c>
-      <c r="N16">
-        <v>0.533279600484136</v>
-      </c>
-      <c r="O16">
-        <v>0.008569471147088783</v>
-      </c>
-      <c r="P16">
-        <v>0.008569471147088783</v>
-      </c>
-      <c r="Q16">
-        <v>1.950352075397648</v>
-      </c>
-      <c r="R16">
-        <v>1.950352075397648</v>
-      </c>
-      <c r="S16">
-        <v>0.0004576255986281024</v>
-      </c>
-      <c r="T16">
-        <v>0.0004576255986281024</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H24">
+        <v>12.965183</v>
+      </c>
+      <c r="I24">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J24">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>28.689804</v>
+      </c>
+      <c r="N24">
+        <v>86.069412</v>
+      </c>
+      <c r="O24">
+        <v>0.4490576627264975</v>
+      </c>
+      <c r="P24">
+        <v>0.4490576627264975</v>
+      </c>
+      <c r="Q24">
+        <v>123.989519698044</v>
+      </c>
+      <c r="R24">
+        <v>1115.905677282396</v>
+      </c>
+      <c r="S24">
+        <v>0.02786704089326417</v>
+      </c>
+      <c r="T24">
+        <v>0.02786704089326416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H25">
+        <v>12.965183</v>
+      </c>
+      <c r="I25">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J25">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.73637633333333</v>
+      </c>
+      <c r="N25">
+        <v>89.20912899999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4654387898293833</v>
+      </c>
+      <c r="P25">
+        <v>0.4654387898293833</v>
+      </c>
+      <c r="Q25">
+        <v>128.5125203061785</v>
+      </c>
+      <c r="R25">
+        <v>1156.612682755607</v>
+      </c>
+      <c r="S25">
+        <v>0.02888359973802863</v>
+      </c>
+      <c r="T25">
+        <v>0.02888359973802862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.321727666666667</v>
+      </c>
+      <c r="H26">
+        <v>12.965183</v>
+      </c>
+      <c r="I26">
+        <v>0.06205670943029166</v>
+      </c>
+      <c r="J26">
+        <v>0.06205670943029164</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5574883333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.672465</v>
+      </c>
+      <c r="O26">
+        <v>0.008725901646590447</v>
+      </c>
+      <c r="P26">
+        <v>0.008725901646590447</v>
+      </c>
+      <c r="Q26">
+        <v>2.409312754010555</v>
+      </c>
+      <c r="R26">
+        <v>21.683814786095</v>
+      </c>
+      <c r="S26">
+        <v>0.000541500742999767</v>
+      </c>
+      <c r="T26">
+        <v>0.0005415007429997667</v>
       </c>
     </row>
   </sheetData>
